--- a/Rol Tercero/CP_FORMATO.xlsx
+++ b/Rol Tercero/CP_FORMATO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\Rol Tercero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E940E271-A1E9-4485-B1E0-7BE6086928DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3636992D-540E-42B7-B9C8-E069D0F9AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reportado" sheetId="4" r:id="rId1"/>
@@ -28,17 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
-  <si>
-    <t>Id: Cp_login01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>Fecha: 28/04/23</t>
   </si>
   <si>
-    <t xml:space="preserve">Titulo: Defecto Scroll en login </t>
-  </si>
-  <si>
     <t>Responsable: Asignacion de desarrollador</t>
   </si>
   <si>
@@ -54,16 +48,7 @@
     <t xml:space="preserve">Descripcion:  En el loggeo al inicio la barra lateral y horizontal para mover la pantalla se ven muy poco y no son tan llamativas por lo cual el usuario podría pensar que no existen, </t>
   </si>
   <si>
-    <t xml:space="preserve">Conclusiones: La novedad solo se presenta en la version de escritorio en version movil no se evidencia </t>
-  </si>
-  <si>
     <t>Recomendaciones: informacion de como se puede replicar el error o informacion con la cual se llego a la novedad</t>
-  </si>
-  <si>
-    <t>Estado: Asignado</t>
-  </si>
-  <si>
-    <t>Resultados Obtenidos: scroll no funciona correctamente</t>
   </si>
   <si>
     <t xml:space="preserve">Recomendaciones: Enseñansa </t>
@@ -135,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,120 +143,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,19 +437,19 @@
   </sheetPr>
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -593,11 +471,11 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -619,7 +497,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -665,13 +543,13 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -691,7 +569,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -748,13 +626,13 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -796,7 +674,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -865,19 +743,19 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -899,11 +777,11 @@
     </row>
     <row r="4" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -925,7 +803,7 @@
     </row>
     <row r="6" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -971,13 +849,13 @@
     </row>
     <row r="10" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -997,7 +875,7 @@
     </row>
     <row r="12" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1054,13 +932,13 @@
     </row>
     <row r="17" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1102,7 +980,7 @@
     </row>
     <row r="21" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,7 +1026,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1194,6 +1072,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B17:E20"/>
+    <mergeCell ref="F17:J20"/>
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B25:J28"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B2:C3"/>
@@ -1201,11 +1084,6 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:J5"/>
     <mergeCell ref="B6:J9"/>
-    <mergeCell ref="B12:J16"/>
-    <mergeCell ref="B17:E20"/>
-    <mergeCell ref="F17:J20"/>
-    <mergeCell ref="B21:J24"/>
-    <mergeCell ref="B25:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1219,201 +1097,201 @@
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:J28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1421,10 +1299,10 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1432,10 +1310,10 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1443,10 +1321,10 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1454,54 +1332,54 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1547,6 +1425,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B17:E20"/>
+    <mergeCell ref="F17:J20"/>
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B25:J28"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B2:C3"/>
@@ -1554,11 +1437,6 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:J5"/>
     <mergeCell ref="B6:J9"/>
-    <mergeCell ref="B12:J16"/>
-    <mergeCell ref="B17:E20"/>
-    <mergeCell ref="F17:J20"/>
-    <mergeCell ref="B21:J24"/>
-    <mergeCell ref="B25:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1579,11 +1457,11 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1605,11 +1483,11 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1631,7 +1509,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1677,13 +1555,13 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1703,7 +1581,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1760,13 +1638,13 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1808,7 +1686,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1854,7 +1732,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1900,6 +1778,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B21:J24"/>
+    <mergeCell ref="B25:J28"/>
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B17:E20"/>
+    <mergeCell ref="F17:J20"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B2:C3"/>
@@ -1907,11 +1790,6 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:J5"/>
     <mergeCell ref="B6:J9"/>
-    <mergeCell ref="B21:J24"/>
-    <mergeCell ref="B25:J28"/>
-    <mergeCell ref="B12:J16"/>
-    <mergeCell ref="B17:E20"/>
-    <mergeCell ref="F17:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rol Tercero/CP_FORMATO.xlsx
+++ b/Rol Tercero/CP_FORMATO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\Rol Tercero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3636992D-540E-42B7-B9C8-E069D0F9AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826EF7B2-8FBD-48BB-B5DA-7E7340A77FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reportado" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Fecha: 28/04/23</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Resultados Obtenidos: Se observa que el scrill si funciona</t>
   </si>
   <si>
-    <t>Estado: Solucionado</t>
-  </si>
-  <si>
     <t>Id:</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Prioridad:(alta,media,baja)</t>
   </si>
   <si>
-    <t>Estado:(reportado,abierto,asignado,solucionado)</t>
-  </si>
-  <si>
     <t>Descripcion:  (se cuenta a detalle la novedad de ser necesario se referencian imagenes que se encuentren dentro de la carpeta)</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">Conclusiones:Adicionales que le puedan aportar a la resolucion del caso </t>
+  </si>
+  <si>
+    <t>Responsable: Desarrollador</t>
   </si>
 </sst>
 </file>
@@ -120,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,13 +140,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -438,18 +515,18 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:J24"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -475,7 +552,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -497,7 +574,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -541,35 +618,33 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+    <row r="10" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -626,13 +701,13 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -674,7 +749,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -719,7 +794,7 @@
       <c r="J24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="B12:J16"/>
     <mergeCell ref="B17:E20"/>
     <mergeCell ref="F17:J20"/>
@@ -729,8 +804,7 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:J5"/>
     <mergeCell ref="B6:J9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="B10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -743,19 +817,19 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -781,7 +855,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -803,7 +877,7 @@
     </row>
     <row r="6" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -848,34 +922,32 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -932,13 +1004,13 @@
     </row>
     <row r="17" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -980,7 +1052,7 @@
     </row>
     <row r="21" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1071,19 +1143,18 @@
       <c r="J28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
+    <mergeCell ref="B10:J11"/>
     <mergeCell ref="B12:J16"/>
     <mergeCell ref="B17:E20"/>
     <mergeCell ref="F17:J20"/>
     <mergeCell ref="B21:J24"/>
     <mergeCell ref="B25:J28"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="B6:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1097,18 +1168,18 @@
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1134,7 +1205,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1156,7 +1227,7 @@
     </row>
     <row r="6" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1201,34 +1272,32 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1285,13 +1354,13 @@
     </row>
     <row r="17" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1333,7 +1402,7 @@
     </row>
     <row r="21" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1424,19 +1493,18 @@
       <c r="J28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
+    <mergeCell ref="B10:J11"/>
     <mergeCell ref="B12:J16"/>
     <mergeCell ref="B17:E20"/>
     <mergeCell ref="F17:J20"/>
     <mergeCell ref="B21:J24"/>
     <mergeCell ref="B25:J28"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="B6:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1449,19 +1517,19 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1553,31 +1621,29 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
@@ -1777,19 +1843,18 @@
       <c r="J28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B6:J9"/>
+    <mergeCell ref="B10:J11"/>
     <mergeCell ref="B21:J24"/>
     <mergeCell ref="B25:J28"/>
     <mergeCell ref="B12:J16"/>
     <mergeCell ref="B17:E20"/>
     <mergeCell ref="F17:J20"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="B6:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
